--- a/biology/Médecine/Muscle_triceps_brachial/Muscle_triceps_brachial.xlsx
+++ b/biology/Médecine/Muscle_triceps_brachial/Muscle_triceps_brachial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle triceps brachial est un muscle postérieur du bras. C'est le seul muscle de la loge brachiale postérieure[1]. Il se divise en trois chefs :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle triceps brachial est un muscle postérieur du bras. C'est le seul muscle de la loge brachiale postérieure. Il se divise en trois chefs :
 le chef latéral du muscle triceps brachial (ou muscle vaste externe du membre supérieur),
 le chef médial du muscle triceps brachial (ou chef profond du muscle triceps brachial ou muscle vaste interne du membre supérieur),
 le chef long du muscle triceps brachial (ou longue portion du triceps brachial ou muscle grand anconé ou muscle long triceps).
@@ -514,15 +526,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aperçu de la description de l'origine pour chacun des chefs du muscle triceps brachial[1].
-Chef latéral du muscle triceps brachial
-Le chef latéral du triceps brachial se fixe au niveau de la face postérieure de la moitié proximale de l'humérus au-dessus du sillon du nerf radial.
-Chef médial du muscle triceps brachial
-Le chef médial du triceps brachial se fixe au niveau des faces postérieure et médiale de la moitié distale de l'humérus au-dessous du sillon du nerf radial. Il se fixe également sur la face postérieure des septums intermusculaires latéral et médial.
-Chef long du muscle triceps brachial
-Le long chef du triceps brachial se fixe sur le tubercule infraglénoïdal de la scapula et sur le labrum glénoïdal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aperçu de la description de l'origine pour chacun des chefs du muscle triceps brachial.
 </t>
         </is>
       </c>
@@ -548,12 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les trois chefs du muscle se dirigent vers le bas et se rejoignent au ventre du muscle.
+          <t>Chef latéral du muscle triceps brachial</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef latéral du triceps brachial se fixe au niveau de la face postérieure de la moitié proximale de l'humérus au-dessus du sillon du nerf radial.
 </t>
         </is>
       </c>
@@ -579,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terminaison</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle triceps brachial se termine par une lame tendineuse aplatie d'avant en arrière qui s'insère sur la face supérieure de l'olécrane. Les fibres musculaires inférieures du chef médial s'insère sur les faces latérale et médiale de l'olécrane.
+          <t>Chef médial du muscle triceps brachial</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef médial du triceps brachial se fixe au niveau des faces postérieure et médiale de la moitié distale de l'humérus au-dessous du sillon du nerf radial. Il se fixe également sur la face postérieure des septums intermusculaires latéral et médial.
 </t>
         </is>
       </c>
@@ -610,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le muscle triceps brachial est innervé par le nerf radial (C7 et C8)[1].
+          <t>Chef long du muscle triceps brachial</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le long chef du triceps brachial se fixe sur le tubercule infraglénoïdal de la scapula et sur le labrum glénoïdal.
 </t>
         </is>
       </c>
@@ -641,12 +667,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vascularisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle triceps brachial est irrigué par l'artère brachiale profonde[1].
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois chefs du muscle se dirigent vers le bas et se rejoignent au ventre du muscle.
 </t>
         </is>
       </c>
@@ -672,10 +700,111 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle triceps brachial se termine par une lame tendineuse aplatie d'avant en arrière qui s'insère sur la face supérieure de l'olécrane. Les fibres musculaires inférieures du chef médial s'insère sur les faces latérale et médiale de l'olécrane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle triceps brachial est innervé par le nerf radial (C7 et C8).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle triceps brachial est irrigué par l'artère brachiale profonde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle triceps brachial permet l'extension du coude et la rétropulsion de l'épaule.
 Les chefs médial et latéral sont des extenseurs du coude.
@@ -684,31 +813,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Muscle_triceps_brachial</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscle_triceps_brachial</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_triceps_brachial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Culture physique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exercices les plus efficaces pour les triceps sont les extensions des avant-bras à la barre, couché sur un banc, le développé couché prise serrée ou encore les dips.
 </t>
